--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_6.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_6.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9954633122631453</v>
+        <v>0.9338389600334243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8284119151584738</v>
+        <v>0.7212055052960089</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8170978237635216</v>
+        <v>0.6394766831298871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9924524409488688</v>
+        <v>0.9568310537437898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01888408381985102</v>
+        <v>0.2753970951510878</v>
       </c>
       <c r="G2" t="n">
-        <v>1.147410313425767</v>
+        <v>1.864300069816197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6542304791203639</v>
+        <v>1.289571000101393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03819635131904348</v>
+        <v>0.1956234909809036</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2744336672896198</v>
+        <v>1.246376967849677</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1374193720690464</v>
+        <v>0.5247829028761206</v>
       </c>
       <c r="L2" t="n">
-        <v>1.290348015158699</v>
+        <v>0.9099083711093436</v>
       </c>
       <c r="M2" t="n">
-        <v>0.139583589810159</v>
+        <v>0.5330477090059755</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9388716752752</v>
+        <v>36.57908248097598</v>
       </c>
       <c r="O2" t="n">
-        <v>279.2740442184916</v>
+        <v>73.54366606920181</v>
       </c>
     </row>
     <row r="3">
@@ -561,144 +561,144 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9950600262309218</v>
+        <v>0.9335826682026204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8223610562822147</v>
+        <v>0.7187193090320823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8137995197003429</v>
+        <v>0.6383819235940908</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9954485246151704</v>
+        <v>0.9587616414780896</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02056277269544133</v>
+        <v>0.2764639167389887</v>
       </c>
       <c r="G3" t="n">
-        <v>1.187872434592955</v>
+        <v>1.880925275680955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6660283215076959</v>
+        <v>1.293486891483131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02303390429159683</v>
+        <v>0.1868748801163447</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3587296948262522</v>
+        <v>1.245618546309602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1433972548392797</v>
+        <v>0.5257983612935558</v>
       </c>
       <c r="L3" t="n">
-        <v>1.316158321221003</v>
+        <v>0.9095593779780362</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1456556182583331</v>
+        <v>0.5340791598783994</v>
       </c>
       <c r="N3" t="n">
-        <v>137.7685459775202</v>
+        <v>36.57134993315088</v>
       </c>
       <c r="O3" t="n">
-        <v>279.1037185207366</v>
+        <v>73.53593352137671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_6</t>
+          <t>model_1_6_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9948834773364243</v>
+        <v>0.9333603140958581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8220491549668471</v>
+        <v>0.7184909236780884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8135818100285258</v>
+        <v>0.6382240019923759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9953516836496922</v>
+        <v>0.9581202810140342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02129766218208315</v>
+        <v>0.2773894716445375</v>
       </c>
       <c r="G4" t="n">
-        <v>1.189958120124992</v>
+        <v>1.88245248959473</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6668070563802539</v>
+        <v>1.294051767895645</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02352399274462156</v>
+        <v>0.1897812557367038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3660622227364104</v>
+        <v>1.247614944494203</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1459371857412742</v>
+        <v>0.5266777683219005</v>
       </c>
       <c r="L4" t="n">
-        <v>1.327457450468842</v>
+        <v>0.9092565979177641</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1482355505330345</v>
+        <v>0.5349724166883559</v>
       </c>
       <c r="N4" t="n">
-        <v>137.6983159380003</v>
+        <v>36.56466545103672</v>
       </c>
       <c r="O4" t="n">
-        <v>279.0334884812168</v>
+        <v>73.52924903926254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_7</t>
+          <t>model_1_6_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9949808568715889</v>
+        <v>0.9327753908095173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8219971414461082</v>
+        <v>0.7160904837793627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8138575467083959</v>
+        <v>0.6370391369283631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9954352391451788</v>
+        <v>0.9587538507734944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02089231726723592</v>
+        <v>0.2798242304395296</v>
       </c>
       <c r="G5" t="n">
-        <v>1.190305934777672</v>
+        <v>1.898504242250518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6658207622644895</v>
+        <v>1.298289961527195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02310113880752429</v>
+        <v>0.1869101843098052</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3620998053408661</v>
+        <v>1.251095415023604</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1445417492188188</v>
+        <v>0.5289841495163438</v>
       </c>
       <c r="L5" t="n">
-        <v>1.321225160218312</v>
+        <v>0.9084601066342364</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1468181372802753</v>
+        <v>0.5373151210810764</v>
       </c>
       <c r="N5" t="n">
-        <v>137.7367475649201</v>
+        <v>36.54718724271937</v>
       </c>
       <c r="O5" t="n">
-        <v>279.0719201081365</v>
+        <v>73.51177083094518</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9943797056127099</v>
+        <v>0.932338477227192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8199245098564176</v>
+        <v>0.7152267650451912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8133488713839969</v>
+        <v>0.6365364490081074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9949098510188423</v>
+        <v>0.9581314172415106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02339462543115375</v>
+        <v>0.2816428948901679</v>
       </c>
       <c r="G6" t="n">
-        <v>1.204165631761525</v>
+        <v>1.904279933402982</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6676402644051751</v>
+        <v>1.300088047070429</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02575999968114617</v>
+        <v>0.1897307910419587</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3863658187852592</v>
+        <v>1.254141917611975</v>
       </c>
       <c r="K6" t="n">
-        <v>0.152953017071105</v>
+        <v>0.5307003814678937</v>
       </c>
       <c r="L6" t="n">
-        <v>1.359698840786564</v>
+        <v>0.9078651604795805</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1553618741930519</v>
+        <v>0.5390583819702607</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5104979308577</v>
+        <v>36.53423068138866</v>
       </c>
       <c r="O6" t="n">
-        <v>278.8456704740741</v>
+        <v>73.49881426961447</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9939448372432254</v>
+        <v>0.932191677360895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8186650395307173</v>
+        <v>0.7112808849478921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8118955150807383</v>
+        <v>0.634537859300573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9945647704034544</v>
+        <v>0.9632845697754098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02520477662874165</v>
+        <v>0.2822539532527202</v>
       </c>
       <c r="G7" t="n">
-        <v>1.212587715628811</v>
+        <v>1.930666051782729</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6728388356314907</v>
+        <v>1.30723688656939</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02750636831893406</v>
+        <v>0.1663788731550723</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3973071702416148</v>
+        <v>1.249203576091618</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1587601229173801</v>
+        <v>0.5312757789065112</v>
       </c>
       <c r="L7" t="n">
-        <v>1.387530416433577</v>
+        <v>0.9076652627893038</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1612604361514297</v>
+        <v>0.5396428413433501</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3614435073345</v>
+        <v>36.52989613968127</v>
       </c>
       <c r="O7" t="n">
-        <v>278.6966160505509</v>
+        <v>73.49447972790709</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9924107079786131</v>
+        <v>0.9320259820978694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8151452845796634</v>
+        <v>0.7109436850423645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8104969813339777</v>
+        <v>0.6343288964946565</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9924559933435293</v>
+        <v>0.9631180275830457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03159063064908258</v>
+        <v>0.2829436642086033</v>
       </c>
       <c r="G8" t="n">
-        <v>1.236124333193489</v>
+        <v>1.932920909103655</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6778413097520073</v>
+        <v>1.307984334409794</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03817837351806758</v>
+        <v>0.1671335722592039</v>
       </c>
       <c r="J8" t="n">
-        <v>0.416888711872568</v>
+        <v>1.250634404142934</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1777375330341979</v>
+        <v>0.5319244910780131</v>
       </c>
       <c r="L8" t="n">
-        <v>1.485714689368763</v>
+        <v>0.9074396351970987</v>
       </c>
       <c r="M8" t="n">
-        <v>0.180536721507137</v>
+        <v>0.5403017700830788</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9097894016008</v>
+        <v>36.52501493511188</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2449619448171</v>
+        <v>73.4895985233377</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9896125561451997</v>
+        <v>0.9312018933066598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.811625737278576</v>
+        <v>0.7106947382410419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8012914483375064</v>
+        <v>0.6341077664525273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.989536857080632</v>
+        <v>0.9599393070125805</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04323801235745695</v>
+        <v>0.2863739558025738</v>
       </c>
       <c r="G9" t="n">
-        <v>1.259659562201886</v>
+        <v>1.934585617510393</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7107689675129136</v>
+        <v>1.308775303748634</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05295140854706445</v>
+        <v>0.1815381956928316</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4587654912158836</v>
+        <v>1.259229497353721</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2079375203215065</v>
+        <v>0.5351391929232747</v>
       </c>
       <c r="L9" t="n">
-        <v>1.664796406707218</v>
+        <v>0.9063174717367283</v>
       </c>
       <c r="M9" t="n">
-        <v>0.211212328405309</v>
+        <v>0.5435671002688803</v>
       </c>
       <c r="N9" t="n">
-        <v>136.2820705098981</v>
+        <v>36.50091356894828</v>
       </c>
       <c r="O9" t="n">
-        <v>277.6172430531145</v>
+        <v>73.46549715717411</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9847855715051492</v>
+        <v>0.9309983217863664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8075837794873003</v>
+        <v>0.7103541671353502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.785862348270628</v>
+        <v>0.6338951010371874</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9831047580496586</v>
+        <v>0.9596224108245931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06333046478686891</v>
+        <v>0.28722132769051</v>
       </c>
       <c r="G10" t="n">
-        <v>1.28668815256365</v>
+        <v>1.93686301806234</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7659579638215137</v>
+        <v>1.309535995608256</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08550268938389563</v>
+        <v>0.1829742358084439</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5172732043901496</v>
+        <v>1.26052220102144</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2516554485539085</v>
+        <v>0.5359303384680792</v>
       </c>
       <c r="L10" t="n">
-        <v>1.97372342367045</v>
+        <v>0.9060402679644138</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2556187703054762</v>
+        <v>0.5443707055651601</v>
       </c>
       <c r="N10" t="n">
-        <v>135.5187775787088</v>
+        <v>36.49500436760886</v>
       </c>
       <c r="O10" t="n">
-        <v>276.8539501219253</v>
+        <v>73.45958795583469</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9846557469554909</v>
+        <v>0.9306122169235687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8074369140869804</v>
+        <v>0.709691360673921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7856885799302641</v>
+        <v>0.633459764656556</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9833185038810679</v>
+        <v>0.9591221219115404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06387086294072586</v>
+        <v>0.2888284994896825</v>
       </c>
       <c r="G11" t="n">
-        <v>1.287670242171843</v>
+        <v>1.94129520792186</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7665795230993282</v>
+        <v>1.31109316859952</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08442097398237555</v>
+        <v>0.1852413345485787</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5216716290128632</v>
+        <v>1.262775883861905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2527268544114888</v>
+        <v>0.5374276690771349</v>
       </c>
       <c r="L11" t="n">
-        <v>1.982032194848586</v>
+        <v>0.9055145081512425</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2567070497343004</v>
+        <v>0.545891617634527</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5017840012141</v>
+        <v>36.48384438877752</v>
       </c>
       <c r="O11" t="n">
-        <v>276.8369565444306</v>
+        <v>73.44842797700333</v>
       </c>
     </row>
   </sheetData>
